--- a/VtigerWebApplicationMSTestUnit/Resources/VtigerData.xlsx
+++ b/VtigerWebApplicationMSTestUnit/Resources/VtigerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\source\repos\ECommerceProject\Shopping Solution\VtigerWebApplicationMSTestUnit\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>url</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>Administrator - Home - vtiger CRM 5 - Commercial Open Source CRM</t>
+  </si>
+  <si>
+    <t>username_wrong</t>
+  </si>
+  <si>
+    <t>abhishek</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>password_wrong</t>
   </si>
 </sst>
 </file>
@@ -373,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,6 +429,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="http://localhost:8888/"/>
